--- a/12_OCORA Release R6/OCORA-TWS05-030_CCS-OB Procurement - Technical Requirements.xlsx
+++ b/12_OCORA Release R6/OCORA-TWS05-030_CCS-OB Procurement - Technical Requirements.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1441" documentId="13_ncr:1_{86634107-7B62-456B-A722-2ED87695A55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39C205BD-8AEA-4206-85F4-9D8F85E6551B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B087FB11-58D2-4313-9495-8C17A50BCABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="450" windowWidth="30480" windowHeight="21705" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4500" yWindow="-23580" windowWidth="28440" windowHeight="22800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="2" r:id="rId1"/>
@@ -69,13 +69,13 @@
     <definedName name="_Ref60844317" localSheetId="2">References!$A$6</definedName>
     <definedName name="_Toc11134334" localSheetId="4">Introduction!$B$1</definedName>
     <definedName name="Class">#REF!</definedName>
-    <definedName name="Importance">#REF!</definedName>
-    <definedName name="Mandatory">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">CCN!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'ETCS-OB'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">'OMS-OB'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">TTLS!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">VA!$1:$1</definedName>
+    <definedName name="Importance">#REF!</definedName>
+    <definedName name="Mandatory">#REF!</definedName>
     <definedName name="Priority">#REF!</definedName>
     <definedName name="Prt_Titles" localSheetId="6">CCN!$1:$1</definedName>
     <definedName name="Prt_Titles" localSheetId="8">'OMS-OB'!$1:$1</definedName>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="667">
   <si>
     <t>OCORA</t>
   </si>
@@ -677,12 +677,6 @@
     <t>WSA</t>
   </si>
   <si>
-    <t>Version: 1.00</t>
-  </si>
-  <si>
-    <t>Date: 31.01.2025</t>
-  </si>
-  <si>
     <t>Release for 1st publication</t>
   </si>
   <si>
@@ -692,12 +686,6 @@
     <t>1.2.0</t>
   </si>
   <si>
-    <t>OCORA-TWS02-030 – Addendum to SUBSET-147 (CCN)</t>
-  </si>
-  <si>
-    <t>OCORA-TWS02-031 – Addendum to SUBSET-147 (TTLS)</t>
-  </si>
-  <si>
     <t>RFC 5905 – Network Time Protocol</t>
   </si>
   <si>
@@ -720,12 +708,6 @@
   </si>
   <si>
     <t>SUBSET-137 – On-line Key Management FFFIS</t>
-  </si>
-  <si>
-    <t>OCORA-TWS04-021 – Generic Vehicle Adaptor - Mapping Table Template</t>
-  </si>
-  <si>
-    <t>OCORA-TWS04-020 – Generic Vehicle Adaptor - Requirements Specification</t>
   </si>
   <si>
     <t>4.20</t>
@@ -3788,9 +3770,6 @@
     <t>1st edition</t>
   </si>
   <si>
-    <t>OCORA-TWS04-015 – Addendum to SUBSET-119 - ETCS On-Board to TCMS IF</t>
-  </si>
-  <si>
     <t>SUBSET-139 – ATO-OB / Rolling Stock FFFIS Application Layer</t>
   </si>
   <si>
@@ -4351,6 +4330,30 @@
   </si>
   <si>
     <t>CCSOB-4301</t>
+  </si>
+  <si>
+    <t>OCORA-TWS04-015 - Addendum to SUBSET-119</t>
+  </si>
+  <si>
+    <t>OCORA-TWS04-020 - Generic Vehicle Adapter - Requirement Specification</t>
+  </si>
+  <si>
+    <t>OCORA-TWS02-030 - Addendum to SUBSET-147 (CCN)</t>
+  </si>
+  <si>
+    <t>OCORA-TWS02-031 - Addendum to SUBSET-147 (TTLS)</t>
+  </si>
+  <si>
+    <t>OCORA-TWS04-021 - Vehicle Adapter - Mapping Table Template</t>
+  </si>
+  <si>
+    <t>Version: 1.01</t>
+  </si>
+  <si>
+    <t>Editorial Update</t>
+  </si>
+  <si>
+    <t>Date: 17.02.2025</t>
   </si>
 </sst>
 </file>
@@ -4362,13 +4365,19 @@
     <numFmt numFmtId="165" formatCode="000\-00"/>
     <numFmt numFmtId="166" formatCode="&quot;FR-&quot;000\-00"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4651,6 +4660,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4765,33 +4790,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="24" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4799,303 +4847,297 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{85529755-B512-4A60-897D-5092D3CA2868}"/>
   </cellStyles>
   <dxfs count="5">
@@ -5223,8 +5265,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="127000" y="8105321"/>
-          <a:ext cx="987288" cy="276859"/>
+          <a:off x="123825" y="8034193"/>
+          <a:ext cx="988608" cy="280034"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="986155" cy="275590"/>
         </a:xfrm>
@@ -6100,69 +6142,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7861854-BC2B-4539-BD4A-D7A029C75FF3}">
   <dimension ref="A9:G39"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="30.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="6"/>
-    <col min="9" max="9" width="12.42578125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="6" width="9.1796875" style="6"/>
+    <col min="7" max="7" width="30.453125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="6"/>
+    <col min="9" max="9" width="12.453125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:1" ht="90.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="90.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="23" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="89" t="s">
+    <row r="34" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-    </row>
-    <row r="36" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+    </row>
+    <row r="36" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G37" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G38" s="39" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G39" s="39" t="s">
-        <v>154</v>
+    <row r="38" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="91" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="115" t="s">
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -6184,24 +6226,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63A4A99-7D74-4263-8509-8CC779B44A5D}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showRowColHeaders="0" showRuler="0" view="pageLayout" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="32" customWidth="1"/>
     <col min="3" max="3" width="40" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="30" customWidth="1"/>
     <col min="6" max="6" width="24" style="30" customWidth="1"/>
     <col min="7" max="7" width="24" style="31" customWidth="1"/>
-    <col min="8" max="8" width="40.85546875" style="30" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="30"/>
+    <col min="8" max="8" width="40.81640625" style="30" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
@@ -6212,95 +6254,95 @@
         <v>18</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="99" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="101" t="s">
-        <v>616</v>
-      </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-    </row>
-    <row r="5" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="102"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-    </row>
-    <row r="6" spans="1:9" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="105" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+    </row>
+    <row r="5" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="106"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+    </row>
+    <row r="6" spans="1:9" s="54" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="52">
         <v>6.2</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="110"/>
+      <c r="C6" s="114"/>
       <c r="H6" s="30"/>
-      <c r="I6" s="54"/>
-    </row>
-    <row r="7" spans="1:9" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
-        <v>289</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>277</v>
+      <c r="I6" s="53"/>
+    </row>
+    <row r="7" spans="1:9" ht="8" x14ac:dyDescent="0.35">
+      <c r="A7" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>271</v>
       </c>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:9" ht="41.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="32" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>23</v>
@@ -6309,30 +6351,30 @@
         <v>24</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" s="52" t="s">
+    <row r="9" spans="1:9" ht="8" x14ac:dyDescent="0.35">
+      <c r="A9" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="51" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="30"/>
     </row>
-    <row r="10" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B10" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>281</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>287</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>23</v>
@@ -6341,30 +6383,30 @@
         <v>24</v>
       </c>
       <c r="F10" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="52">
+        <v>6.3</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+      <c r="A12" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>282</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53">
-        <v>6.3</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>288</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>23</v>
@@ -6373,19 +6415,19 @@
         <v>24</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G15" s="30"/>
     </row>
   </sheetData>
@@ -6407,7 +6449,7 @@
   <headerFooter>
     <oddHeader>&amp;L&amp;"Arial,Standard"&amp;12Technial Requirements for 
 &amp;A&amp;R&amp;G</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;10OCORA-TWS05-030&amp;C&amp;"Arial,Standard"&amp;10v1.00 / 31.01.2025&amp;R&amp;"Arial,Standard"&amp;10&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;10OCORA-TWS05-030&amp;C&amp;"Arial,Standard"&amp;10v1.01 / 17.02.2025&amp;R&amp;"Arial,Standard"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="5" max="16383" man="1"/>
@@ -6421,22 +6463,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2950803B-A064-4E83-BA41-56ACA8395FFC}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="145" zoomScalePageLayoutView="145" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" showRuler="0" view="pageLayout" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="54.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="9"/>
-    <col min="7" max="7" width="30.7109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="9"/>
-    <col min="9" max="9" width="12.42578125" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.1796875" style="9"/>
+    <col min="2" max="2" width="54.1796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="9.1796875" style="9"/>
+    <col min="7" max="7" width="30.7265625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="9"/>
+    <col min="9" max="9" width="12.453125" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
@@ -6444,19 +6486,19 @@
       <c r="C1" s="17"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>4</v>
       </c>
@@ -6470,57 +6512,65 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="36">
         <v>1</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>156</v>
+      <c r="B5" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>154</v>
       </c>
       <c r="D5" s="37">
         <v>45688</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="36">
+        <v>1.01</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>665</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="37">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.86614173228346458" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;G</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;10OCORA-TWS05-030&amp;C&amp;"Arial,Standard"&amp;10v1.00 / 31.01.2025&amp;R&amp;"Arial,Standard"&amp;10&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;10OCORA-TWS05-030&amp;C&amp;"Arial,Standard"&amp;10v1.01 / 17.02.2025&amp;R&amp;"Arial,Standard"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -6530,30 +6580,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74381A65-3F84-4E5B-8054-6D6007D32081}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" showRuler="0" view="pageLayout" zoomScale="110" zoomScalePageLayoutView="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="67.453125" style="17" customWidth="1"/>
     <col min="2" max="2" width="12" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="16" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="17" bestFit="1"/>
-    <col min="7" max="7" width="30.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="17" bestFit="1"/>
-    <col min="9" max="9" width="12.42578125" style="17" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="17"/>
+    <col min="3" max="3" width="15.81640625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" style="16" customWidth="1"/>
+    <col min="5" max="6" width="9.1796875" style="17" bestFit="1"/>
+    <col min="7" max="7" width="30.7265625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="17" bestFit="1"/>
+    <col min="9" max="9" width="12.453125" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
@@ -6565,15 +6613,15 @@
       </c>
       <c r="D3" s="17"/>
     </row>
-    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="42"/>
+    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="41"/>
       <c r="D4" s="17"/>
     </row>
-    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="62" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="38">
@@ -6581,35 +6629,35 @@
       </c>
       <c r="D5" s="17"/>
     </row>
-    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="79" t="s">
-        <v>624</v>
+      <c r="B6" s="78" t="s">
+        <v>617</v>
       </c>
       <c r="C6" s="38">
         <v>45688</v>
       </c>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>170</v>
+      <c r="B7" s="62" t="s">
+        <v>164</v>
       </c>
       <c r="C7" s="38">
         <v>45631</v>
       </c>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="62" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="38">
@@ -6617,45 +6665,45 @@
       </c>
       <c r="D8" s="17"/>
     </row>
-    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="80" t="s">
-        <v>626</v>
+      <c r="B9" s="79" t="s">
+        <v>619</v>
       </c>
       <c r="C9" s="38">
         <v>45688</v>
       </c>
       <c r="D9" s="17"/>
     </row>
-    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
-      <c r="B10" s="42"/>
+      <c r="B10" s="41"/>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="68">
         <v>45112</v>
       </c>
       <c r="D11" s="17"/>
     </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="42"/>
+    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="41"/>
       <c r="C12" s="38"/>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="63" t="s">
+    <row r="13" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="89" t="s">
+        <v>661</v>
+      </c>
+      <c r="B13" s="62" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="38">
@@ -6663,11 +6711,11 @@
       </c>
       <c r="D13" s="17"/>
     </row>
-    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="63" t="s">
+    <row r="14" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="89" t="s">
+        <v>662</v>
+      </c>
+      <c r="B14" s="62" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="38">
@@ -6675,11 +6723,11 @@
       </c>
       <c r="D14" s="17"/>
     </row>
-    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
-        <v>602</v>
-      </c>
-      <c r="B15" s="63" t="s">
+    <row r="15" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="89" t="s">
+        <v>659</v>
+      </c>
+      <c r="B15" s="62" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="38">
@@ -6687,11 +6735,11 @@
       </c>
       <c r="D15" s="17"/>
     </row>
-    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="46" t="s">
+    <row r="16" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="89" t="s">
+        <v>660</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="38">
@@ -6699,11 +6747,11 @@
       </c>
       <c r="D16" s="17"/>
     </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="46" t="s">
+    <row r="17" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="89" t="s">
+        <v>663</v>
+      </c>
+      <c r="B17" s="45" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="38">
@@ -6711,33 +6759,34 @@
       </c>
       <c r="D17" s="17"/>
     </row>
-    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="42"/>
+    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="90"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="38"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="43">
+    <row r="19" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="42">
         <v>4</v>
       </c>
-      <c r="C19" s="72">
+      <c r="C19" s="71">
         <v>40330</v>
       </c>
       <c r="D19" s="17"/>
     </row>
-    <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
-      <c r="B20" s="43"/>
+      <c r="B20" s="42"/>
       <c r="D20" s="17"/>
     </row>
-    <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="43" t="s">
+    <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="42" t="s">
         <v>58</v>
       </c>
       <c r="C21" s="38">
@@ -6745,11 +6794,11 @@
       </c>
       <c r="D21" s="17"/>
     </row>
-    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="43" t="s">
+    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="42" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="38">
@@ -6757,11 +6806,11 @@
       </c>
       <c r="D22" s="17"/>
     </row>
-    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="43" t="s">
+    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="42" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="38">
@@ -6769,11 +6818,11 @@
       </c>
       <c r="D23" s="17"/>
     </row>
-    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="71" t="s">
-        <v>603</v>
-      </c>
-      <c r="B24" s="43" t="s">
+    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="70" t="s">
+        <v>596</v>
+      </c>
+      <c r="B24" s="42" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="38">
@@ -6781,11 +6830,11 @@
       </c>
       <c r="D24" s="17"/>
     </row>
-    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="71" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="46" t="s">
+    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="45" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="38">
@@ -6793,82 +6842,89 @@
       </c>
       <c r="D25" s="17"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" s="44" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="43" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="38">
         <v>45112</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>157</v>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>155</v>
       </c>
       <c r="C27" s="38">
         <v>45488</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="45"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="70" t="s">
-        <v>625</v>
-      </c>
-      <c r="B29" s="73" t="s">
-        <v>601</v>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="44"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="69" t="s">
+        <v>618</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>595</v>
       </c>
       <c r="C29" s="38">
         <v>39965</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" s="73" t="s">
-        <v>601</v>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="72" t="s">
+        <v>595</v>
       </c>
       <c r="C30" s="38">
         <v>40725</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="45"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="45"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="69"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="69"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="69"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="44"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="44"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="68"/>
+    </row>
+    <row r="34" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="88"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="68"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="68"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{EC234735-9372-4201-981A-68AC635CE281}"/>
+    <hyperlink ref="A14" r:id="rId2" xr:uid="{95C53E61-5A71-4535-A26E-4E73853A056D}"/>
+    <hyperlink ref="A15" r:id="rId3" xr:uid="{63AD99D0-384B-4B30-9DE6-D322B689EF2B}"/>
+    <hyperlink ref="A16" r:id="rId4" xr:uid="{5B353E1F-294F-4BA7-BFEA-774AE51C6E1D}"/>
+    <hyperlink ref="A17" r:id="rId5" xr:uid="{7BC44212-95A0-4A0C-953F-7B00528BC798}"/>
+  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.86614173228346458" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;G</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;10OCORA-TWS05-030&amp;C&amp;"Arial,Standard"&amp;10v1.00 / 31.01.2025&amp;R&amp;"Arial,Standard"&amp;10&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;10OCORA-TWS05-030&amp;C&amp;"Arial,Standard"&amp;10v1.01 / 17.02.2025&amp;R&amp;"Arial,Standard"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <legacyDrawingHF r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6876,839 +6932,839 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AB5A02-7D88-4132-A236-BFA6A89215FB}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" showRuler="0" view="pageLayout" zoomScale="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27" style="26" customWidth="1"/>
     <col min="2" max="2" width="11" style="24" customWidth="1"/>
-    <col min="3" max="3" width="57.28515625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="25" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="23" bestFit="1"/>
-    <col min="7" max="7" width="30.7109375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="23" bestFit="1"/>
-    <col min="9" max="9" width="12.42578125" style="23" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="23"/>
+    <col min="3" max="3" width="57.26953125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" style="25" customWidth="1"/>
+    <col min="5" max="6" width="9.1796875" style="23" bestFit="1"/>
+    <col min="7" max="7" width="30.7265625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="23" bestFit="1"/>
+    <col min="9" max="9" width="12.453125" style="23" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:3" ht="20" x14ac:dyDescent="0.35">
+      <c r="A1" s="49" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:3" s="58" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+    <row r="2" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" s="57" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="77" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
+    <row r="4" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="73"/>
+    </row>
+    <row r="5" spans="1:3" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="73"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="74"/>
-    </row>
-    <row r="5" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="74" t="s">
+      <c r="B8" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="C8" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="74" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="73" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74" t="s">
+      <c r="B9" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="C9" s="73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="74"/>
-    </row>
-    <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="74" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="74" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="73" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74" t="s">
+      <c r="C15" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="74" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="74" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="74" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="74" t="s">
+      <c r="B16" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="73"/>
+    </row>
+    <row r="17" spans="1:3" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="73" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74" t="s">
+      <c r="B17" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="73"/>
+    </row>
+    <row r="18" spans="1:3" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="40" x14ac:dyDescent="0.35">
+      <c r="A19" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="75" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74" t="s">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="73" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="74" t="s">
+      <c r="B20" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C20" s="73" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74" t="s">
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="74"/>
-    </row>
-    <row r="17" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="74" t="s">
+      <c r="B21" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="74"/>
-    </row>
-    <row r="18" spans="1:3" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="76" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="76" t="s">
+      <c r="C21" s="73" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="74" t="s">
+    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="74" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="B23" s="73" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="74" t="s">
+      <c r="C23" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="74" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="B25" s="73" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="74" t="s">
+      <c r="C25" s="73" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="73" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74" t="s">
+    <row r="28" spans="1:3" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B28" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C28" s="73" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="74" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="74" t="s">
+    <row r="29" spans="1:3" ht="120" x14ac:dyDescent="0.35">
+      <c r="A29" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B29" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C29" s="75" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" x14ac:dyDescent="0.35">
+      <c r="A31" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="74" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="32.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="73" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="73"/>
+    </row>
+    <row r="39" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="73"/>
+    </row>
+    <row r="40" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="73"/>
+    </row>
+    <row r="41" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="73" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="73"/>
+    </row>
+    <row r="45" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" s="73" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="73" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" s="73" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="94" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" s="94" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="95"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="73" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="B53" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="C53" s="73"/>
+    </row>
+    <row r="54" spans="1:3" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="73" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="73" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" s="73" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" s="73"/>
+    </row>
+    <row r="59" spans="1:3" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="73" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="75" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="74" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="74" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="B28" s="74" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="74" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="B29" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="C29" s="76" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="B31" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="C31" s="76" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="74" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="B33" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="B34" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="74" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="74" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="74" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="74" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="74" t="s">
-        <v>216</v>
-      </c>
-      <c r="B38" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="C38" s="74"/>
-    </row>
-    <row r="39" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" s="74" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="74"/>
-    </row>
-    <row r="40" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="74"/>
-    </row>
-    <row r="41" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="74" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="76" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="76" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="B44" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="C44" s="74"/>
-    </row>
-    <row r="45" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="B45" s="74" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="74" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="74" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="74" t="s">
-        <v>226</v>
-      </c>
-      <c r="C47" s="74" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="B48" s="74" t="s">
-        <v>229</v>
-      </c>
-      <c r="C48" s="74" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="90" t="s">
-        <v>231</v>
-      </c>
-      <c r="C49" s="90" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="91"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="91"/>
-    </row>
-    <row r="51" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="74" t="s">
-        <v>232</v>
-      </c>
-      <c r="B51" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="74" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" s="74" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="B53" s="74" t="s">
+    <row r="61" spans="1:3" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="C53" s="74"/>
-    </row>
-    <row r="54" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="74" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="74" t="s">
+      <c r="B61" s="73" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="B56" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="74" t="s">
+      <c r="C61" s="73" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="B57" s="74"/>
-      <c r="C57" s="74" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="74" t="s">
+    <row r="62" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="73" t="s">
         <v>237</v>
       </c>
-      <c r="B58" s="74" t="s">
+    </row>
+    <row r="63" spans="1:3" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="C58" s="74"/>
-    </row>
-    <row r="59" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="B59" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" s="74" t="s">
+      <c r="B63" s="73" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="B60" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" s="76" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="74" t="s">
+      <c r="C63" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="B61" s="74" t="s">
+    </row>
+    <row r="64" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="C61" s="74" t="s">
+      <c r="C64" s="73" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="74" t="s">
+    <row r="65" spans="1:3" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="73" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="74" t="s">
+      <c r="B65" s="73" t="s">
         <v>244</v>
       </c>
-      <c r="B63" s="74" t="s">
+      <c r="C65" s="73" t="s">
         <v>245</v>
       </c>
-      <c r="C63" s="74" t="s">
+    </row>
+    <row r="66" spans="1:3" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="73" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="B64" s="74" t="s">
+      <c r="B66" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="C64" s="74" t="s">
+      <c r="C66" s="73" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="74" t="s">
+    <row r="67" spans="1:3" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="73" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="B65" s="74" t="s">
+      <c r="B68" s="73"/>
+      <c r="C68" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="C65" s="74" t="s">
+    </row>
+    <row r="69" spans="1:3" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="73"/>
+      <c r="C72" s="73" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="74" t="s">
+    <row r="73" spans="1:3" ht="27.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="73" t="s">
+        <v>600</v>
+      </c>
+      <c r="B73" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="73" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="73" t="s">
         <v>252</v>
       </c>
-      <c r="B66" s="74" t="s">
+      <c r="B74" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="C66" s="74" t="s">
+      <c r="C74" s="73" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="73" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="B67" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="C67" s="74" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="74" t="s">
+      <c r="B75" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="73" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="73" t="s">
         <v>255</v>
       </c>
-      <c r="B68" s="74"/>
-      <c r="C68" s="74" t="s">
+      <c r="B76" s="73" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" s="74" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="B70" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" s="74" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="C71" s="74" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="B72" s="74"/>
-      <c r="C72" s="74" t="s">
+      <c r="C76" s="73"/>
+    </row>
+    <row r="77" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="73" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="74" t="s">
-        <v>607</v>
-      </c>
-      <c r="B73" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" s="74" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="74" t="s">
+      <c r="B77" s="73" t="s">
         <v>258</v>
       </c>
-      <c r="B74" s="74" t="s">
+      <c r="C77" s="73"/>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="C74" s="74" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="74" t="s">
+      <c r="B78" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" s="73"/>
+    </row>
+    <row r="79" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="73" t="s">
         <v>260</v>
       </c>
-      <c r="B75" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="C75" s="74" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="74" t="s">
+      <c r="B79" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="B76" s="74" t="s">
+      <c r="C79" s="73"/>
+    </row>
+    <row r="80" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="73" t="s">
         <v>262</v>
-      </c>
-      <c r="C76" s="74"/>
-    </row>
-    <row r="77" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="74" t="s">
-        <v>263</v>
-      </c>
-      <c r="B77" s="74" t="s">
-        <v>264</v>
-      </c>
-      <c r="C77" s="74"/>
-    </row>
-    <row r="78" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="B78" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="C78" s="74"/>
-    </row>
-    <row r="79" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="74" t="s">
-        <v>266</v>
-      </c>
-      <c r="B79" s="74" t="s">
-        <v>267</v>
-      </c>
-      <c r="C79" s="74"/>
-    </row>
-    <row r="80" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="B80" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="C80" s="74" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -7721,7 +7777,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;G</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;10OCORA-TWS05-030&amp;C&amp;"Arial,Standard"&amp;10v1.00 / 31.01.2025&amp;R&amp;"Arial,Standard"&amp;10&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;10OCORA-TWS05-030&amp;C&amp;"Arial,Standard"&amp;10v1.01 / 17.02.2025&amp;R&amp;"Arial,Standard"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="29" max="16383" man="1"/>
@@ -7734,22 +7790,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2BFEF0-8FEC-4CF8-A62F-072E15031C07}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" showRuler="0" view="pageLayout" zoomScale="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="59.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="9"/>
-    <col min="7" max="7" width="30.7109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="9"/>
-    <col min="9" max="9" width="12.42578125" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="13.1796875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="59.1796875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="9.1796875" style="9"/>
+    <col min="7" max="7" width="30.7265625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="9"/>
+    <col min="9" max="9" width="12.453125" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
@@ -7757,13 +7813,13 @@
       <c r="C1" s="17"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20"/>
       <c r="B2" s="18"/>
       <c r="C2" s="17"/>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="1:4" s="13" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="13" customFormat="1" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
@@ -7771,47 +7827,47 @@
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
     </row>
-    <row r="4" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
       <c r="B4" s="18"/>
       <c r="C4" s="17"/>
       <c r="D4" s="16"/>
     </row>
-    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
+    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="18"/>
       <c r="C6" s="17"/>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
-        <v>371</v>
-      </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
+    <row r="7" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="96" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="16"/>
     </row>
-    <row r="8" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
+    <row r="8" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="63"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="17"/>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="18"/>
       <c r="C9" s="17"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:4" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -7819,194 +7875,194 @@
       <c r="C10" s="17"/>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="B11" s="18"/>
       <c r="C11" s="17"/>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="98" t="s">
-        <v>370</v>
-      </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="102" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="18"/>
     </row>
-    <row r="14" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
-        <v>271</v>
-      </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
+    <row r="14" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="101" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="16"/>
     </row>
-    <row r="15" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" s="18"/>
       <c r="C15" s="17"/>
       <c r="D15" s="16"/>
     </row>
-    <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="18"/>
       <c r="C16" s="17"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="1:3" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="12"/>
     </row>
-    <row r="18" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="18"/>
     </row>
-    <row r="19" spans="1:3" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="96" t="s">
-        <v>630</v>
-      </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-    </row>
-    <row r="21" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="100" t="s">
+        <v>623</v>
+      </c>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+    </row>
+    <row r="21" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="18"/>
     </row>
-    <row r="22" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B22" s="18"/>
     </row>
-    <row r="23" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="18"/>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="82" t="s">
+    <row r="26" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="81" t="s">
+        <v>630</v>
+      </c>
+      <c r="B26" s="81" t="s">
+        <v>631</v>
+      </c>
+      <c r="C26" s="81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="82" t="s">
+        <v>624</v>
+      </c>
+      <c r="B27" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="84"/>
+      <c r="B28" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="84"/>
+      <c r="B29" s="83" t="s">
+        <v>634</v>
+      </c>
+      <c r="C29" s="84" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="84"/>
+      <c r="B30" s="83" t="s">
+        <v>636</v>
+      </c>
+      <c r="C30" s="84" t="s">
         <v>637</v>
       </c>
-      <c r="B26" s="82" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="84"/>
+      <c r="B31" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="84" t="s">
         <v>638</v>
       </c>
-      <c r="C26" s="82" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="83" t="s">
-        <v>631</v>
-      </c>
-      <c r="B27" s="84" t="s">
-        <v>392</v>
-      </c>
-      <c r="C27" s="85" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="84" t="s">
+        <v>625</v>
+      </c>
+      <c r="B32" s="84" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="85"/>
-      <c r="B28" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="85" t="s">
+      <c r="C32" s="84" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="85"/>
-      <c r="B29" s="84" t="s">
+    <row r="33" spans="1:3" ht="14" x14ac:dyDescent="0.35">
+      <c r="A33" s="98" t="s">
+        <v>626</v>
+      </c>
+      <c r="B33" s="98" t="s">
+        <v>639</v>
+      </c>
+      <c r="C33" s="85" t="s">
         <v>641</v>
       </c>
-      <c r="C29" s="85" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="85"/>
-      <c r="B30" s="84" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.35">
+      <c r="A34" s="99"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="87" t="s">
         <v>643</v>
       </c>
-      <c r="C30" s="85" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="99"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="86" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="85"/>
-      <c r="B31" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="85" t="s">
+    <row r="36" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="84" t="s">
+        <v>628</v>
+      </c>
+      <c r="B36" s="84" t="s">
+        <v>639</v>
+      </c>
+      <c r="C36" s="84" t="s">
         <v>645</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="85" t="s">
-        <v>632</v>
-      </c>
-      <c r="B32" s="85" t="s">
-        <v>646</v>
-      </c>
-      <c r="C32" s="85" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="94" t="s">
-        <v>633</v>
-      </c>
-      <c r="B33" s="94" t="s">
-        <v>646</v>
-      </c>
-      <c r="C33" s="86" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="88" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="95"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="87" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="85" t="s">
-        <v>635</v>
-      </c>
-      <c r="B36" s="85" t="s">
-        <v>646</v>
-      </c>
-      <c r="C36" s="85" t="s">
-        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -8023,7 +8079,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;G</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;10OCORA-TWS05-030&amp;C&amp;"Arial,Standard"&amp;10v1.00 / 31.01.2025&amp;R&amp;"Arial,Standard"&amp;10&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;10OCORA-TWS05-030&amp;C&amp;"Arial,Standard"&amp;10v1.01 / 17.02.2025&amp;R&amp;"Arial,Standard"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -8033,24 +8089,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView showRuler="0" view="pageLayout" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView showRowColHeaders="0" showRuler="0" view="pageLayout" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="32" customWidth="1"/>
     <col min="3" max="3" width="40" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="30" customWidth="1"/>
     <col min="6" max="6" width="24" style="30" customWidth="1"/>
     <col min="7" max="7" width="24" style="31" customWidth="1"/>
-    <col min="8" max="8" width="40.85546875" style="30" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="30"/>
+    <col min="8" max="8" width="40.81640625" style="30" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
@@ -8061,86 +8117,86 @@
         <v>18</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="99" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+    </row>
+    <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="101" t="s">
-        <v>613</v>
-      </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-    </row>
-    <row r="5" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="102"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-    </row>
-    <row r="6" spans="1:8" s="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="59">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="105" t="s">
+        <v>606</v>
+      </c>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+    </row>
+    <row r="5" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="106"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+    </row>
+    <row r="6" spans="1:8" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="58">
         <v>6.2</v>
       </c>
-      <c r="B6" s="104" t="s">
-        <v>291</v>
-      </c>
-      <c r="C6" s="105"/>
+      <c r="B6" s="108" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="109"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="1:8" s="67" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="66" t="s">
-        <v>289</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>277</v>
+    <row r="7" spans="1:8" s="66" customFormat="1" ht="8.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>271</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
@@ -8149,15 +8205,15 @@
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="1:8" s="67" customFormat="1" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="51" t="s">
-        <v>372</v>
+    <row r="8" spans="1:8" s="66" customFormat="1" ht="143.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="50" t="s">
+        <v>366</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>23</v>
@@ -8166,22 +8222,22 @@
         <v>24</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H8" s="30"/>
     </row>
-    <row r="9" spans="1:8" s="67" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="51" t="s">
-        <v>374</v>
+    <row r="9" spans="1:8" s="66" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="50" t="s">
+        <v>368</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>23</v>
@@ -8190,22 +8246,22 @@
         <v>33</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="30"/>
     </row>
-    <row r="10" spans="1:8" s="67" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="51" t="s">
-        <v>376</v>
+    <row r="10" spans="1:8" s="66" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="50" t="s">
+        <v>370</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>23</v>
@@ -8214,22 +8270,22 @@
         <v>24</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="30"/>
     </row>
-    <row r="11" spans="1:8" s="67" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A11" s="51" t="s">
-        <v>378</v>
+    <row r="11" spans="1:8" s="66" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="50" t="s">
+        <v>372</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>23</v>
@@ -8238,18 +8294,18 @@
         <v>24</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="30"/>
     </row>
-    <row r="12" spans="1:8" s="67" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="66" t="s">
-        <v>290</v>
-      </c>
-      <c r="B12" s="52" t="s">
+    <row r="12" spans="1:8" s="66" customFormat="1" ht="8" x14ac:dyDescent="0.2">
+      <c r="A12" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="51" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="30"/>
@@ -8259,15 +8315,15 @@
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
     </row>
-    <row r="13" spans="1:8" s="67" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="51" t="s">
-        <v>379</v>
+    <row r="13" spans="1:8" s="66" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="50" t="s">
+        <v>373</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>23</v>
@@ -8276,22 +8332,22 @@
         <v>24</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="30"/>
     </row>
-    <row r="14" spans="1:8" s="67" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="51" t="s">
-        <v>380</v>
+    <row r="14" spans="1:8" s="66" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="50" t="s">
+        <v>374</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>23</v>
@@ -8300,22 +8356,22 @@
         <v>33</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="30"/>
     </row>
-    <row r="15" spans="1:8" s="67" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="51" t="s">
-        <v>381</v>
+    <row r="15" spans="1:8" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="50" t="s">
+        <v>375</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>23</v>
@@ -8324,22 +8380,22 @@
         <v>33</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="30"/>
     </row>
-    <row r="16" spans="1:8" s="67" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="51" t="s">
-        <v>382</v>
+    <row r="16" spans="1:8" s="66" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="50" t="s">
+        <v>376</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>23</v>
@@ -8348,22 +8404,22 @@
         <v>33</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="30"/>
     </row>
-    <row r="17" spans="1:8" s="67" customFormat="1" ht="66" x14ac:dyDescent="0.15">
-      <c r="A17" s="51" t="s">
-        <v>384</v>
+    <row r="17" spans="1:8" s="66" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17" s="50" t="s">
+        <v>378</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>23</v>
@@ -8372,22 +8428,22 @@
         <v>24</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G17" s="30" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="1:8" s="67" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="51" t="s">
-        <v>386</v>
+    <row r="18" spans="1:8" s="66" customFormat="1" ht="62.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="50" t="s">
+        <v>380</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>23</v>
@@ -8396,18 +8452,18 @@
         <v>24</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H18" s="30"/>
     </row>
-    <row r="19" spans="1:8" s="67" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="66" t="s">
-        <v>529</v>
-      </c>
-      <c r="B19" s="52" t="s">
+    <row r="19" spans="1:8" s="66" customFormat="1" ht="8" x14ac:dyDescent="0.2">
+      <c r="A19" s="65" t="s">
+        <v>523</v>
+      </c>
+      <c r="B19" s="51" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="30"/>
@@ -8417,39 +8473,39 @@
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
     </row>
-    <row r="20" spans="1:8" s="67" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="51" t="s">
-        <v>389</v>
+    <row r="20" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="50" t="s">
+        <v>383</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H20" s="30"/>
     </row>
-    <row r="21" spans="1:8" s="67" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="51" t="s">
-        <v>395</v>
+    <row r="21" spans="1:8" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="s">
+        <v>389</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>23</v>
@@ -8458,22 +8514,22 @@
         <v>24</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="30"/>
     </row>
-    <row r="22" spans="1:8" s="67" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" s="66" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>23</v>
@@ -8482,18 +8538,18 @@
         <v>24</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H22" s="30"/>
     </row>
-    <row r="23" spans="1:8" s="67" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="66" t="s">
-        <v>530</v>
-      </c>
-      <c r="B23" s="52" t="s">
+    <row r="23" spans="1:8" s="66" customFormat="1" ht="8" x14ac:dyDescent="0.2">
+      <c r="A23" s="65" t="s">
+        <v>524</v>
+      </c>
+      <c r="B23" s="51" t="s">
         <v>94</v>
       </c>
       <c r="C23" s="30"/>
@@ -8503,15 +8559,15 @@
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
     </row>
-    <row r="24" spans="1:8" s="67" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="51" t="s">
-        <v>655</v>
+    <row r="24" spans="1:8" s="66" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="50" t="s">
+        <v>648</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>23</v>
@@ -8520,18 +8576,18 @@
         <v>24</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G24" s="30" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="30"/>
     </row>
-    <row r="25" spans="1:8" s="67" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="59">
+    <row r="25" spans="1:8" s="66" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="58">
         <v>6.3</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="52" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="30"/>
@@ -8541,12 +8597,12 @@
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
     </row>
-    <row r="26" spans="1:8" s="67" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>404</v>
+    <row r="26" spans="1:8" s="66" customFormat="1" ht="8" x14ac:dyDescent="0.2">
+      <c r="A26" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>398</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
@@ -8555,60 +8611,60 @@
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
     </row>
-    <row r="27" spans="1:8" s="67" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="51" t="s">
-        <v>656</v>
+    <row r="27" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="50" t="s">
+        <v>649</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H27" s="30"/>
     </row>
-    <row r="28" spans="1:8" s="67" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="51" t="s">
-        <v>657</v>
+    <row r="28" spans="1:8" s="66" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="50" t="s">
+        <v>650</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="H28" s="30"/>
     </row>
-    <row r="29" spans="1:8" s="67" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="62" t="s">
-        <v>345</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>410</v>
+    <row r="29" spans="1:8" s="66" customFormat="1" ht="8" x14ac:dyDescent="0.2">
+      <c r="A29" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>404</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -8617,39 +8673,39 @@
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
     </row>
-    <row r="30" spans="1:8" s="67" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="51" t="s">
-        <v>658</v>
+    <row r="30" spans="1:8" s="66" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="50" t="s">
+        <v>651</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="H30" s="30"/>
     </row>
-    <row r="31" spans="1:8" s="67" customFormat="1" ht="74.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="51" t="s">
-        <v>659</v>
+    <row r="31" spans="1:8" s="66" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+      <c r="A31" s="50" t="s">
+        <v>652</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>23</v>
@@ -8658,46 +8714,46 @@
         <v>33</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H31" s="30"/>
     </row>
-    <row r="32" spans="1:8" s="67" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="51" t="s">
-        <v>660</v>
+    <row r="32" spans="1:8" s="66" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="50" t="s">
+        <v>653</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H32" s="30"/>
     </row>
-    <row r="33" spans="1:8" s="67" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="51" t="s">
-        <v>661</v>
+    <row r="33" spans="1:8" s="66" customFormat="1" ht="62.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="50" t="s">
+        <v>654</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D33" s="30" t="s">
         <v>23</v>
@@ -8706,44 +8762,44 @@
         <v>24</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="H33" s="30"/>
     </row>
-    <row r="34" spans="1:8" s="67" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="51" t="s">
-        <v>662</v>
+    <row r="34" spans="1:8" s="66" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="50" t="s">
+        <v>655</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G34" s="30" t="s">
         <v>30</v>
       </c>
       <c r="H34" s="30"/>
     </row>
-    <row r="35" spans="1:8" s="67" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="51" t="s">
-        <v>663</v>
+    <row r="35" spans="1:8" s="66" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="50" t="s">
+        <v>656</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>23</v>
@@ -8752,22 +8808,22 @@
         <v>24</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H35" s="30"/>
     </row>
-    <row r="36" spans="1:8" s="67" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="51" t="s">
-        <v>664</v>
+    <row r="36" spans="1:8" s="66" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="50" t="s">
+        <v>657</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D36" s="30" t="s">
         <v>23</v>
@@ -8776,44 +8832,44 @@
         <v>24</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
     </row>
-    <row r="37" spans="1:8" s="67" customFormat="1" ht="74.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="51" t="s">
-        <v>665</v>
+    <row r="37" spans="1:8" s="66" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A37" s="50" t="s">
+        <v>658</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E37" s="30" t="s">
         <v>33</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="H37" s="30"/>
     </row>
-    <row r="38" spans="1:8" s="67" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="51" t="s">
-        <v>432</v>
+    <row r="38" spans="1:8" s="66" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="50" t="s">
+        <v>426</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D38" s="30" t="s">
         <v>23</v>
@@ -8822,20 +8878,20 @@
         <v>33</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G38" s="30"/>
       <c r="H38" s="30"/>
     </row>
-    <row r="39" spans="1:8" s="67" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A39" s="51" t="s">
-        <v>435</v>
+    <row r="39" spans="1:8" s="66" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A39" s="50" t="s">
+        <v>429</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D39" s="30" t="s">
         <v>23</v>
@@ -8844,19 +8900,19 @@
         <v>33</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H39" s="30"/>
     </row>
-    <row r="40" spans="1:8" s="67" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="62" t="s">
-        <v>557</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>439</v>
+    <row r="40" spans="1:8" s="66" customFormat="1" ht="8" x14ac:dyDescent="0.2">
+      <c r="A40" s="61" t="s">
+        <v>551</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>433</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
@@ -8865,12 +8921,12 @@
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
     </row>
-    <row r="41" spans="1:8" s="67" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="68" t="s">
-        <v>558</v>
+    <row r="41" spans="1:8" s="66" customFormat="1" ht="8" x14ac:dyDescent="0.2">
+      <c r="A41" s="67" t="s">
+        <v>552</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
@@ -8879,15 +8935,15 @@
       <c r="G41" s="30"/>
       <c r="H41" s="30"/>
     </row>
-    <row r="42" spans="1:8" s="67" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="51" t="s">
-        <v>441</v>
+    <row r="42" spans="1:8" s="66" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A42" s="50" t="s">
+        <v>435</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D42" s="30" t="s">
         <v>23</v>
@@ -8896,22 +8952,22 @@
         <v>24</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H42" s="30"/>
     </row>
-    <row r="43" spans="1:8" s="67" customFormat="1" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="51" t="s">
-        <v>443</v>
+    <row r="43" spans="1:8" s="66" customFormat="1" ht="71.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="50" t="s">
+        <v>437</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>23</v>
@@ -8920,22 +8976,22 @@
         <v>24</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H43" s="30"/>
     </row>
-    <row r="44" spans="1:8" s="67" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="51" t="s">
-        <v>445</v>
+    <row r="44" spans="1:8" s="66" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A44" s="50" t="s">
+        <v>439</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D44" s="30" t="s">
         <v>23</v>
@@ -8944,17 +9000,17 @@
         <v>24</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
     </row>
-    <row r="45" spans="1:8" s="67" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="68" t="s">
-        <v>559</v>
+    <row r="45" spans="1:8" s="66" customFormat="1" ht="8" x14ac:dyDescent="0.2">
+      <c r="A45" s="67" t="s">
+        <v>553</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
@@ -8963,39 +9019,39 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
     </row>
-    <row r="46" spans="1:8" s="67" customFormat="1" ht="123.75" x14ac:dyDescent="0.15">
-      <c r="A46" s="51" t="s">
-        <v>449</v>
+    <row r="46" spans="1:8" s="66" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A46" s="50" t="s">
+        <v>443</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E46" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G46" s="30" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H46" s="30"/>
     </row>
-    <row r="47" spans="1:8" s="67" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A47" s="51" t="s">
-        <v>453</v>
+    <row r="47" spans="1:8" s="66" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A47" s="50" t="s">
+        <v>447</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D47" s="30" t="s">
         <v>23</v>
@@ -9004,17 +9060,17 @@
         <v>24</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
     </row>
-    <row r="48" spans="1:8" s="67" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="62" t="s">
-        <v>561</v>
-      </c>
-      <c r="B48" s="52" t="s">
-        <v>457</v>
+    <row r="48" spans="1:8" s="66" customFormat="1" ht="8" x14ac:dyDescent="0.2">
+      <c r="A48" s="61" t="s">
+        <v>555</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>451</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
@@ -9023,15 +9079,15 @@
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
     </row>
-    <row r="49" spans="1:8" s="67" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="51" t="s">
-        <v>458</v>
+    <row r="49" spans="1:8" s="66" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A49" s="50" t="s">
+        <v>452</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D49" s="30" t="s">
         <v>23</v>
@@ -9040,18 +9096,18 @@
         <v>24</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G49" s="30" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H49" s="30"/>
     </row>
-    <row r="50" spans="1:8" s="67" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="62" t="s">
-        <v>562</v>
-      </c>
-      <c r="B50" s="52" t="s">
+    <row r="50" spans="1:8" s="66" customFormat="1" ht="8" x14ac:dyDescent="0.2">
+      <c r="A50" s="61" t="s">
+        <v>556</v>
+      </c>
+      <c r="B50" s="51" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="30"/>
@@ -9061,19 +9117,19 @@
       <c r="G50" s="30"/>
       <c r="H50" s="30"/>
     </row>
-    <row r="51" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C51" s="106"/>
+    <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="60"/>
+      <c r="B51" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C51" s="110"/>
       <c r="G51" s="30"/>
     </row>
-    <row r="52" spans="1:8" s="67" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="62" t="s">
-        <v>560</v>
-      </c>
-      <c r="B52" s="52" t="s">
+    <row r="52" spans="1:8" s="66" customFormat="1" ht="8" x14ac:dyDescent="0.2">
+      <c r="A52" s="61" t="s">
+        <v>554</v>
+      </c>
+      <c r="B52" s="51" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="30"/>
@@ -9083,15 +9139,15 @@
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
     </row>
-    <row r="53" spans="1:8" s="67" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="51" t="s">
-        <v>462</v>
+    <row r="53" spans="1:8" s="66" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="50" t="s">
+        <v>456</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D53" s="30" t="s">
         <v>23</v>
@@ -9100,19 +9156,19 @@
         <v>33</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="G53" s="30" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="H53" s="30"/>
     </row>
-    <row r="54" spans="1:8" s="67" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="62" t="s">
-        <v>564</v>
-      </c>
-      <c r="B54" s="52" t="s">
-        <v>465</v>
+    <row r="54" spans="1:8" s="66" customFormat="1" ht="8" x14ac:dyDescent="0.2">
+      <c r="A54" s="61" t="s">
+        <v>558</v>
+      </c>
+      <c r="B54" s="51" t="s">
+        <v>459</v>
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="30"/>
@@ -9121,15 +9177,15 @@
       <c r="G54" s="30"/>
       <c r="H54" s="30"/>
     </row>
-    <row r="55" spans="1:8" s="67" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="51" t="s">
-        <v>466</v>
+    <row r="55" spans="1:8" s="66" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="50" t="s">
+        <v>460</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D55" s="30" t="s">
         <v>23</v>
@@ -9138,22 +9194,22 @@
         <v>24</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G55" s="30" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H55" s="30"/>
     </row>
-    <row r="56" spans="1:8" s="67" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="51" t="s">
-        <v>470</v>
+    <row r="56" spans="1:8" s="66" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="50" t="s">
+        <v>464</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D56" s="30" t="s">
         <v>23</v>
@@ -9162,22 +9218,22 @@
         <v>24</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="G56" s="30" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H56" s="30"/>
     </row>
-    <row r="57" spans="1:8" s="67" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="51" t="s">
-        <v>473</v>
+    <row r="57" spans="1:8" s="66" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="50" t="s">
+        <v>467</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D57" s="30" t="s">
         <v>23</v>
@@ -9186,22 +9242,22 @@
         <v>24</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G57" s="30" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H57" s="30"/>
     </row>
-    <row r="58" spans="1:8" s="67" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="51" t="s">
-        <v>477</v>
+    <row r="58" spans="1:8" s="66" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="50" t="s">
+        <v>471</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D58" s="30" t="s">
         <v>23</v>
@@ -9210,17 +9266,17 @@
         <v>24</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G58" s="30"/>
       <c r="H58" s="30"/>
     </row>
-    <row r="59" spans="1:8" s="67" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="68" t="s">
-        <v>565</v>
+    <row r="59" spans="1:8" s="66" customFormat="1" ht="8" x14ac:dyDescent="0.2">
+      <c r="A59" s="67" t="s">
+        <v>559</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -9229,15 +9285,15 @@
       <c r="G59" s="30"/>
       <c r="H59" s="30"/>
     </row>
-    <row r="60" spans="1:8" s="67" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="51" t="s">
-        <v>482</v>
+    <row r="60" spans="1:8" s="66" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="50" t="s">
+        <v>476</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D60" s="30" t="s">
         <v>23</v>
@@ -9246,19 +9302,19 @@
         <v>24</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="G60" s="30" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="H60" s="30"/>
     </row>
-    <row r="61" spans="1:8" s="67" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="68" t="s">
-        <v>566</v>
+    <row r="61" spans="1:8" s="66" customFormat="1" ht="8" x14ac:dyDescent="0.2">
+      <c r="A61" s="67" t="s">
+        <v>560</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="30"/>
@@ -9267,15 +9323,15 @@
       <c r="G61" s="30"/>
       <c r="H61" s="30"/>
     </row>
-    <row r="62" spans="1:8" s="67" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="51" t="s">
-        <v>486</v>
+    <row r="62" spans="1:8" s="66" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="50" t="s">
+        <v>480</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D62" s="30" t="s">
         <v>23</v>
@@ -9284,46 +9340,46 @@
         <v>33</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G62" s="30" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="H62" s="30"/>
     </row>
-    <row r="63" spans="1:8" s="67" customFormat="1" ht="57.75" x14ac:dyDescent="0.15">
-      <c r="A63" s="51" t="s">
-        <v>490</v>
+    <row r="63" spans="1:8" s="66" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="A63" s="50" t="s">
+        <v>484</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="E63" s="30" t="s">
         <v>33</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G63" s="30" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H63" s="30"/>
     </row>
-    <row r="64" spans="1:8" s="67" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="51" t="s">
-        <v>496</v>
+    <row r="64" spans="1:8" s="66" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A64" s="50" t="s">
+        <v>490</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D64" s="30" t="s">
         <v>23</v>
@@ -9332,44 +9388,44 @@
         <v>24</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="G64" s="30" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="H64" s="30"/>
     </row>
-    <row r="65" spans="1:9" s="67" customFormat="1" ht="57.75" x14ac:dyDescent="0.15">
-      <c r="A65" s="51" t="s">
-        <v>499</v>
+    <row r="65" spans="1:9" s="66" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="A65" s="50" t="s">
+        <v>493</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E65" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G65" s="30"/>
       <c r="H65" s="30"/>
     </row>
-    <row r="66" spans="1:9" s="67" customFormat="1" ht="74.25" x14ac:dyDescent="0.15">
-      <c r="A66" s="51" t="s">
-        <v>503</v>
+    <row r="66" spans="1:9" s="66" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+      <c r="A66" s="50" t="s">
+        <v>497</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D66" s="30" t="s">
         <v>23</v>
@@ -9378,22 +9434,22 @@
         <v>24</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G66" s="30" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="H66" s="30"/>
     </row>
-    <row r="67" spans="1:9" s="67" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="51" t="s">
-        <v>506</v>
+    <row r="67" spans="1:9" s="66" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="50" t="s">
+        <v>500</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D67" s="30" t="s">
         <v>23</v>
@@ -9402,22 +9458,22 @@
         <v>24</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G67" s="30" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="H67" s="30"/>
     </row>
-    <row r="68" spans="1:9" s="67" customFormat="1" ht="128.44999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="51" t="s">
-        <v>509</v>
+    <row r="68" spans="1:9" s="66" customFormat="1" ht="128.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="50" t="s">
+        <v>503</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D68" s="30" t="s">
         <v>23</v>
@@ -9426,20 +9482,20 @@
         <v>24</v>
       </c>
       <c r="F68" s="30" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G68" s="30"/>
       <c r="H68" s="30"/>
     </row>
-    <row r="69" spans="1:9" s="67" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A69" s="51" t="s">
-        <v>512</v>
+    <row r="69" spans="1:9" s="66" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A69" s="50" t="s">
+        <v>506</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="D69" s="30" t="s">
         <v>23</v>
@@ -9448,22 +9504,22 @@
         <v>24</v>
       </c>
       <c r="F69" s="30" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="G69" s="30" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="H69" s="30"/>
     </row>
-    <row r="70" spans="1:9" s="67" customFormat="1" ht="213" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="51" t="s">
-        <v>515</v>
+    <row r="70" spans="1:9" s="66" customFormat="1" ht="213" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="50" t="s">
+        <v>509</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D70" s="30" t="s">
         <v>23</v>
@@ -9472,22 +9528,22 @@
         <v>33</v>
       </c>
       <c r="F70" s="30" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="H70" s="30"/>
     </row>
-    <row r="71" spans="1:9" s="67" customFormat="1" ht="214.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="51" t="s">
-        <v>519</v>
+    <row r="71" spans="1:9" s="66" customFormat="1" ht="184" x14ac:dyDescent="0.2">
+      <c r="A71" s="50" t="s">
+        <v>513</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D71" s="30" t="s">
         <v>23</v>
@@ -9496,18 +9552,18 @@
         <v>24</v>
       </c>
       <c r="F71" s="30" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="G71" s="30" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H71" s="30"/>
     </row>
-    <row r="72" spans="1:9" s="67" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="62" t="s">
-        <v>567</v>
-      </c>
-      <c r="B72" s="52" t="s">
+    <row r="72" spans="1:9" s="66" customFormat="1" ht="8" x14ac:dyDescent="0.2">
+      <c r="A72" s="61" t="s">
+        <v>561</v>
+      </c>
+      <c r="B72" s="51" t="s">
         <v>43</v>
       </c>
       <c r="C72" s="30"/>
@@ -9517,15 +9573,15 @@
       <c r="G72" s="30"/>
       <c r="H72" s="30"/>
     </row>
-    <row r="73" spans="1:9" s="67" customFormat="1" ht="68.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="51" t="s">
-        <v>521</v>
+    <row r="73" spans="1:9" s="66" customFormat="1" ht="68.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="50" t="s">
+        <v>515</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D73" s="30" t="s">
         <v>23</v>
@@ -9534,22 +9590,22 @@
         <v>24</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="G73" s="30" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H73" s="30"/>
     </row>
-    <row r="74" spans="1:9" s="67" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="51" t="s">
-        <v>524</v>
+    <row r="74" spans="1:9" s="66" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="50" t="s">
+        <v>518</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D74" s="30" t="s">
         <v>23</v>
@@ -9558,206 +9614,206 @@
         <v>24</v>
       </c>
       <c r="F74" s="30" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="G74" s="30" t="s">
         <v>30</v>
       </c>
       <c r="H74" s="30"/>
     </row>
-    <row r="75" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="59">
+    <row r="75" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="58">
         <v>6.4</v>
       </c>
-      <c r="B75" s="104" t="s">
+      <c r="B75" s="108" t="s">
+        <v>349</v>
+      </c>
+      <c r="C75" s="109"/>
+      <c r="G75" s="30"/>
+    </row>
+    <row r="76" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A76" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="B76" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" s="112"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="51"/>
+    </row>
+    <row r="77" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A77" s="67" t="s">
+        <v>353</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="C77" s="31"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="51"/>
+    </row>
+    <row r="78" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="60"/>
+      <c r="B78" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C78" s="110"/>
+      <c r="G78" s="30"/>
+    </row>
+    <row r="79" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A79" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="B79" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="C75" s="105"/>
-      <c r="G75" s="30"/>
-    </row>
-    <row r="76" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="62" t="s">
+      <c r="C79" s="31"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="51"/>
+    </row>
+    <row r="80" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="60"/>
+      <c r="B80" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C80" s="110"/>
+      <c r="G80" s="30"/>
+    </row>
+    <row r="81" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A81" s="67" t="s">
         <v>356</v>
       </c>
-      <c r="B76" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" s="108"/>
-      <c r="D76" s="52"/>
-      <c r="E76" s="52"/>
-      <c r="F76" s="52"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="52"/>
-    </row>
-    <row r="77" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="68" t="s">
+      <c r="B81" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="B77" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="52"/>
-      <c r="E77" s="52"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="52"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="52"/>
-    </row>
-    <row r="78" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
-      <c r="B78" s="106" t="s">
+      <c r="C81" s="31"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="51"/>
+    </row>
+    <row r="82" spans="1:9" ht="10" x14ac:dyDescent="0.35">
+      <c r="A82" s="60"/>
+      <c r="B82" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C82" s="110"/>
+      <c r="G82" s="30"/>
+    </row>
+    <row r="83" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A83" s="61" t="s">
+        <v>351</v>
+      </c>
+      <c r="B83" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="112"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="51"/>
+    </row>
+    <row r="84" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A84" s="67" t="s">
+        <v>356</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="C84" s="31"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="51"/>
+    </row>
+    <row r="85" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="60"/>
+      <c r="B85" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C85" s="110"/>
+      <c r="G85" s="30"/>
+    </row>
+    <row r="86" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A86" s="67" t="s">
         <v>358</v>
       </c>
-      <c r="C78" s="106"/>
-      <c r="G78" s="30"/>
-    </row>
-    <row r="79" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="68" t="s">
-        <v>363</v>
-      </c>
-      <c r="B79" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="52"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="52"/>
-    </row>
-    <row r="80" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
-      <c r="B80" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C80" s="106"/>
-      <c r="G80" s="30"/>
-    </row>
-    <row r="81" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="68" t="s">
-        <v>362</v>
-      </c>
-      <c r="B81" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="52"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="52"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="52"/>
-    </row>
-    <row r="82" spans="1:9" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="61"/>
-      <c r="B82" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C82" s="106"/>
-      <c r="G82" s="30"/>
-    </row>
-    <row r="83" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="62" t="s">
-        <v>357</v>
-      </c>
-      <c r="B83" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="C83" s="108"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="52"/>
-    </row>
-    <row r="84" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="68" t="s">
-        <v>362</v>
-      </c>
-      <c r="B84" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="C84" s="31"/>
-      <c r="D84" s="52"/>
-      <c r="E84" s="52"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="52"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="52"/>
-    </row>
-    <row r="85" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
-      <c r="B85" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C85" s="106"/>
-      <c r="G85" s="30"/>
-    </row>
-    <row r="86" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="68" t="s">
-        <v>364</v>
-      </c>
       <c r="B86" s="30" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C86" s="31"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="52"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="51"/>
       <c r="H86" s="30"/>
-      <c r="I86" s="52"/>
-    </row>
-    <row r="87" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
-      <c r="B87" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C87" s="106"/>
+      <c r="I86" s="51"/>
+    </row>
+    <row r="87" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="60"/>
+      <c r="B87" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C87" s="110"/>
       <c r="G87" s="30"/>
     </row>
-    <row r="88" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="68" t="s">
-        <v>362</v>
+    <row r="88" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A88" s="67" t="s">
+        <v>356</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C88" s="31"/>
-      <c r="D88" s="52"/>
-      <c r="E88" s="52"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="52"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="51"/>
       <c r="H88" s="30"/>
-      <c r="I88" s="52"/>
-    </row>
-    <row r="89" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
-      <c r="B89" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C89" s="106"/>
+      <c r="I88" s="51"/>
+    </row>
+    <row r="89" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="60"/>
+      <c r="B89" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C89" s="110"/>
       <c r="G89" s="30"/>
     </row>
-    <row r="90" spans="1:9" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="62" t="s">
-        <v>569</v>
-      </c>
-      <c r="B90" s="107" t="s">
-        <v>568</v>
-      </c>
-      <c r="C90" s="108"/>
-    </row>
-    <row r="91" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
-      <c r="B91" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C91" s="106"/>
+    <row r="90" spans="1:9" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="61" t="s">
+        <v>563</v>
+      </c>
+      <c r="B90" s="111" t="s">
+        <v>562</v>
+      </c>
+      <c r="C90" s="112"/>
+    </row>
+    <row r="91" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="60"/>
+      <c r="B91" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C91" s="110"/>
       <c r="G91" s="30"/>
     </row>
   </sheetData>
@@ -9791,7 +9847,7 @@
   <headerFooter>
     <oddHeader>&amp;L&amp;"Arial,Regular"&amp;12Technial Requirements for 
 &amp;A&amp;R&amp;G</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;10OCORA-TWS05-030&amp;C&amp;"Arial,Standard"&amp;10v1.00 / 31.01.2025&amp;R&amp;"Arial,Standard"&amp;10&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;10OCORA-TWS05-030&amp;C&amp;"Arial,Standard"&amp;10v1.01 / 17.02.2025&amp;R&amp;"Arial,Standard"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="28" max="16383" man="1"/>
@@ -9808,24 +9864,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154AE281-BB45-42A4-B3D6-CD3AC58496A6}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showRuler="0" view="pageLayout" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showRowColHeaders="0" showRuler="0" view="pageLayout" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="32" customWidth="1"/>
     <col min="3" max="3" width="40" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="30" customWidth="1"/>
     <col min="6" max="6" width="24" style="30" customWidth="1"/>
     <col min="7" max="7" width="24" style="31" customWidth="1"/>
-    <col min="8" max="8" width="40.85546875" style="30" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="30"/>
+    <col min="8" max="8" width="40.81640625" style="30" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
@@ -9836,106 +9892,106 @@
         <v>18</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="99" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="B3" s="106" t="s">
-        <v>600</v>
-      </c>
-      <c r="C3" s="106"/>
+        <v>267</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>594</v>
+      </c>
+      <c r="C3" s="110"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="101" t="s">
-        <v>612</v>
-      </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-    </row>
-    <row r="5" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="102"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-    </row>
-    <row r="6" spans="1:9" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="105" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+    </row>
+    <row r="5" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="106"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+    </row>
+    <row r="6" spans="1:9" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="58">
         <v>6.2</v>
       </c>
-      <c r="B6" s="104" t="s">
-        <v>291</v>
-      </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
+      <c r="B6" s="108" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="109"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="30"/>
-      <c r="I6" s="53"/>
-    </row>
-    <row r="7" spans="1:9" s="57" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
-        <v>289</v>
-      </c>
-      <c r="B7" s="107" t="s">
-        <v>346</v>
-      </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="1:9" s="56" customFormat="1" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="111" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" s="112"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="30"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" s="51" customFormat="1" ht="198" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>347</v>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:9" s="50" customFormat="1" ht="184" x14ac:dyDescent="0.35">
+      <c r="A8" s="50" t="s">
+        <v>341</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>23</v>
@@ -9944,53 +10000,53 @@
         <v>24</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="1:9" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="59">
+    <row r="9" spans="1:9" s="58" customFormat="1" ht="14" x14ac:dyDescent="0.35">
+      <c r="A9" s="58">
         <v>6.3</v>
       </c>
-      <c r="B9" s="104" t="s">
-        <v>349</v>
-      </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
+      <c r="B9" s="108" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" s="109"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="30"/>
-      <c r="I9" s="53"/>
-    </row>
-    <row r="10" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="B10" s="107" t="s">
+      <c r="I9" s="52"/>
+    </row>
+    <row r="10" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A10" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="30"/>
-      <c r="I10" s="52"/>
-    </row>
-    <row r="11" spans="1:9" s="51" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
-        <v>350</v>
+      <c r="I10" s="51"/>
+    </row>
+    <row r="11" spans="1:9" s="50" customFormat="1" ht="80" x14ac:dyDescent="0.35">
+      <c r="A11" s="50" t="s">
+        <v>344</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>23</v>
@@ -9999,213 +10055,213 @@
         <v>24</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
-        <v>345</v>
-      </c>
-      <c r="B12" s="107" t="s">
+    <row r="12" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A12" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="B12" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="30"/>
-      <c r="I12" s="52"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="106" t="s">
+      <c r="I12" s="51"/>
+    </row>
+    <row r="13" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="60"/>
+      <c r="B13" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" s="110"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="58">
+        <v>6.4</v>
+      </c>
+      <c r="B14" s="108" t="s">
+        <v>349</v>
+      </c>
+      <c r="C14" s="109"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A15" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="112"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="51"/>
+    </row>
+    <row r="16" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A16" s="67" t="s">
+        <v>353</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="51"/>
+    </row>
+    <row r="17" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="60"/>
+      <c r="B17" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" s="110"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A18" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="51"/>
+    </row>
+    <row r="19" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="60"/>
+      <c r="B19" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C19" s="110"/>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A20" s="67" t="s">
+        <v>356</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="51"/>
+    </row>
+    <row r="21" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="60"/>
+      <c r="B21" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C21" s="110"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A22" s="61" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="112"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="51"/>
+    </row>
+    <row r="23" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A23" s="67" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="51"/>
+    </row>
+    <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="60"/>
+      <c r="B24" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C24" s="110"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A25" s="67" t="s">
         <v>358</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59">
-        <v>6.4</v>
-      </c>
-      <c r="B14" s="104" t="s">
+      <c r="B25" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+      <c r="C25" s="31"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="51"/>
+    </row>
+    <row r="26" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="60"/>
+      <c r="B26" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C26" s="110"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A27" s="67" t="s">
         <v>356</v>
       </c>
-      <c r="B15" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="52"/>
-    </row>
-    <row r="16" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
+      <c r="B27" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="52"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C17" s="106"/>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
-        <v>363</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="52"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C19" s="106"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
-        <v>362</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="52"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C21" s="106"/>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
-        <v>357</v>
-      </c>
-      <c r="B22" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="108"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="52"/>
-    </row>
-    <row r="23" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
-        <v>362</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="52"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C24" s="106"/>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
-        <v>364</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="52"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C26" s="106"/>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="68" t="s">
-        <v>362</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>365</v>
-      </c>
       <c r="C27" s="31"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
       <c r="H27" s="30"/>
-      <c r="I27" s="52"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
-      <c r="B28" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C28" s="106"/>
+      <c r="I27" s="51"/>
+    </row>
+    <row r="28" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="60"/>
+      <c r="B28" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C28" s="110"/>
       <c r="G28" s="30"/>
     </row>
   </sheetData>
@@ -10231,7 +10287,7 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H6:H7 H9:H12 H22:H23 H15:H16 H18 H25 H20 H27" xr:uid="{D7249125-B724-4079-AF9A-21E078707F2A}">
       <formula1>_polarion_7</formula1>
     </dataValidation>
@@ -10242,7 +10298,7 @@
   <headerFooter>
     <oddHeader>&amp;L&amp;"Arial,Standard"&amp;12Technial Requirements for 
 &amp;A&amp;R&amp;G</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;10OCORA-TWS05-030&amp;C&amp;"Arial,Standard"&amp;10v1.00 / 31.01.2025&amp;R&amp;"Arial,Standard"&amp;10&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;10OCORA-TWS05-030&amp;C&amp;"Arial,Standard"&amp;10v1.01 / 17.02.2025&amp;R&amp;"Arial,Standard"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="5" max="16383" man="1"/>
@@ -10257,24 +10313,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BD2E52-4E85-42DA-A79C-33AF9F7261EC}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showRuler="0" view="pageLayout" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showRowColHeaders="0" showRuler="0" view="pageLayout" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="32" customWidth="1"/>
     <col min="3" max="3" width="40" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="30" customWidth="1"/>
     <col min="6" max="6" width="24" style="30" customWidth="1"/>
     <col min="7" max="7" width="24" style="31" customWidth="1"/>
-    <col min="8" max="8" width="40.85546875" style="30" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="30"/>
+    <col min="8" max="8" width="40.81640625" style="30" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
@@ -10285,105 +10341,105 @@
         <v>18</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="99" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="101" t="s">
-        <v>614</v>
-      </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-    </row>
-    <row r="5" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="102"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-    </row>
-    <row r="6" spans="1:9" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="105" t="s">
+        <v>607</v>
+      </c>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+    </row>
+    <row r="5" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="106"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+    </row>
+    <row r="6" spans="1:9" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="58">
         <v>6.2</v>
       </c>
-      <c r="B6" s="104" t="s">
-        <v>291</v>
-      </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
+      <c r="B6" s="108" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="104"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="30"/>
-      <c r="I6" s="53"/>
-    </row>
-    <row r="7" spans="1:9" s="57" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
-        <v>289</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="1:9" s="56" customFormat="1" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="30"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" s="51" customFormat="1" ht="181.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
-        <v>292</v>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:9" s="50" customFormat="1" ht="168" x14ac:dyDescent="0.35">
+      <c r="A8" s="57" t="s">
+        <v>286</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>23</v>
@@ -10392,23 +10448,23 @@
         <v>24</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="1:9" s="51" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
-        <v>293</v>
+    <row r="9" spans="1:9" s="50" customFormat="1" ht="64" x14ac:dyDescent="0.35">
+      <c r="A9" s="57" t="s">
+        <v>287</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>23</v>
@@ -10417,7 +10473,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>30</v>
@@ -10425,15 +10481,15 @@
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" spans="1:9" s="51" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
-        <v>295</v>
+    <row r="10" spans="1:9" s="50" customFormat="1" ht="32" x14ac:dyDescent="0.35">
+      <c r="A10" s="57" t="s">
+        <v>289</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>23</v>
@@ -10442,7 +10498,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>30</v>
@@ -10450,11 +10506,11 @@
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="1:9" s="51" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
-        <v>290</v>
-      </c>
-      <c r="B11" s="52" t="s">
+    <row r="11" spans="1:9" s="50" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A11" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="51" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="30"/>
@@ -10465,15 +10521,15 @@
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:9" s="51" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
-        <v>296</v>
+    <row r="12" spans="1:9" s="50" customFormat="1" ht="32" x14ac:dyDescent="0.35">
+      <c r="A12" s="57" t="s">
+        <v>290</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>23</v>
@@ -10482,7 +10538,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>30</v>
@@ -10490,15 +10546,15 @@
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:9" s="51" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
-        <v>297</v>
+    <row r="13" spans="1:9" s="50" customFormat="1" ht="32" x14ac:dyDescent="0.35">
+      <c r="A13" s="57" t="s">
+        <v>291</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>23</v>
@@ -10507,7 +10563,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>30</v>
@@ -10515,15 +10571,15 @@
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="1:9" s="51" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
-        <v>298</v>
+    <row r="14" spans="1:9" s="50" customFormat="1" ht="80" x14ac:dyDescent="0.35">
+      <c r="A14" s="57" t="s">
+        <v>292</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>23</v>
@@ -10532,22 +10588,22 @@
         <v>24</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="1:9" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="59">
+    <row r="15" spans="1:9" s="50" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="58">
         <v>6.3</v>
       </c>
-      <c r="B15" s="104" t="s">
-        <v>301</v>
-      </c>
-      <c r="C15" s="100"/>
+      <c r="B15" s="108" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="104"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -10555,14 +10611,14 @@
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" spans="1:9" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="B16" s="107" t="s">
+    <row r="16" spans="1:9" s="50" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="100"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -10570,15 +10626,15 @@
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
     </row>
-    <row r="17" spans="1:9" s="51" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
-        <v>302</v>
+    <row r="17" spans="1:9" s="50" customFormat="1" ht="64" x14ac:dyDescent="0.35">
+      <c r="A17" s="57" t="s">
+        <v>296</v>
       </c>
       <c r="B17" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>303</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>309</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>23</v>
@@ -10587,23 +10643,23 @@
         <v>24</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
     </row>
-    <row r="18" spans="1:9" s="51" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
-        <v>366</v>
+    <row r="18" spans="1:9" s="50" customFormat="1" ht="32" x14ac:dyDescent="0.35">
+      <c r="A18" s="57" t="s">
+        <v>360</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>23</v>
@@ -10612,211 +10668,211 @@
         <v>24</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
     </row>
-    <row r="19" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
-        <v>345</v>
-      </c>
-      <c r="B19" s="107" t="s">
+    <row r="19" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A19" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
       <c r="H19" s="30"/>
-      <c r="I19" s="52"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="106" t="s">
+      <c r="I19" s="51"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="60"/>
+      <c r="B20" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C20" s="110"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="58">
+        <v>6.4</v>
+      </c>
+      <c r="B21" s="108" t="s">
+        <v>349</v>
+      </c>
+      <c r="C21" s="109"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A22" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="B22" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="112"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="51"/>
+    </row>
+    <row r="23" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A23" s="67" t="s">
+        <v>353</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="51"/>
+    </row>
+    <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="60"/>
+      <c r="B24" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C24" s="110"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A25" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="51"/>
+    </row>
+    <row r="26" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="60"/>
+      <c r="B26" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C26" s="110"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A27" s="67" t="s">
+        <v>356</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="51"/>
+    </row>
+    <row r="28" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="60"/>
+      <c r="B28" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C28" s="110"/>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A29" s="61" t="s">
+        <v>351</v>
+      </c>
+      <c r="B29" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="112"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="51"/>
+    </row>
+    <row r="30" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A30" s="67" t="s">
+        <v>356</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="51"/>
+    </row>
+    <row r="31" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="60"/>
+      <c r="B31" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C31" s="110"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A32" s="67" t="s">
         <v>358</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59">
-        <v>6.4</v>
-      </c>
-      <c r="B21" s="104" t="s">
+      <c r="B32" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+      <c r="C32" s="31"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="51"/>
+    </row>
+    <row r="33" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="60"/>
+      <c r="B33" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C33" s="110"/>
+      <c r="G33" s="30"/>
+    </row>
+    <row r="34" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A34" s="67" t="s">
         <v>356</v>
       </c>
-      <c r="B22" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="108"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="52"/>
-    </row>
-    <row r="23" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
+      <c r="B34" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="52"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C24" s="106"/>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
-        <v>363</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="52"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C26" s="106"/>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="68" t="s">
-        <v>362</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="52"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
-      <c r="B28" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C28" s="106"/>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="62" t="s">
-        <v>357</v>
-      </c>
-      <c r="B29" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="52"/>
-    </row>
-    <row r="30" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="68" t="s">
-        <v>362</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="52"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C31" s="106"/>
-      <c r="G31" s="30"/>
-    </row>
-    <row r="32" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="68" t="s">
-        <v>364</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="52"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C33" s="106"/>
-      <c r="G33" s="30"/>
-    </row>
-    <row r="34" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="68" t="s">
-        <v>362</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>365</v>
-      </c>
       <c r="C34" s="31"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
       <c r="H34" s="30"/>
-      <c r="I34" s="52"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
-      <c r="B35" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C35" s="106"/>
+      <c r="I34" s="51"/>
+    </row>
+    <row r="35" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="60"/>
+      <c r="B35" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C35" s="110"/>
       <c r="G35" s="30"/>
     </row>
   </sheetData>
@@ -10846,7 +10902,7 @@
   <headerFooter>
     <oddHeader>&amp;L&amp;"Arial,Standard"&amp;12Technial Requirements for 
 &amp;A&amp;R&amp;G</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;10OCORA-TWS05-030&amp;C&amp;"Arial,Standard"&amp;10v1.00 / 31.01.2025&amp;R&amp;"Arial,Standard"&amp;10&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;10OCORA-TWS05-030&amp;C&amp;"Arial,Standard"&amp;10v1.01 / 17.02.2025&amp;R&amp;"Arial,Standard"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="5" max="16383" man="1"/>
@@ -10862,24 +10918,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19349DA4-2393-4B85-B700-1F3C07FA5F08}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView showRuler="0" view="pageLayout" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showRowColHeaders="0" showRuler="0" view="pageLayout" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="32" customWidth="1"/>
     <col min="3" max="3" width="40" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="30" customWidth="1"/>
     <col min="6" max="6" width="24" style="30" customWidth="1"/>
     <col min="7" max="7" width="24" style="31" customWidth="1"/>
-    <col min="8" max="8" width="40.85546875" style="30" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="30"/>
+    <col min="8" max="8" width="40.81640625" style="30" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
@@ -10890,105 +10946,105 @@
         <v>18</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="99" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="101" t="s">
-        <v>615</v>
-      </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-    </row>
-    <row r="5" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="102"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-    </row>
-    <row r="6" spans="1:9" s="59" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="105" t="s">
+        <v>608</v>
+      </c>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+    </row>
+    <row r="5" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="106"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+    </row>
+    <row r="6" spans="1:9" s="58" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="58">
         <v>6.2</v>
       </c>
-      <c r="B6" s="104" t="s">
-        <v>291</v>
-      </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
+      <c r="B6" s="108" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="108"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="30"/>
-      <c r="I6" s="53"/>
-    </row>
-    <row r="7" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
-        <v>289</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A7" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="30"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" s="51" customFormat="1" ht="198" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>316</v>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:9" s="50" customFormat="1" ht="184" x14ac:dyDescent="0.35">
+      <c r="A8" s="50" t="s">
+        <v>310</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>23</v>
@@ -11000,20 +11056,20 @@
         <v>29</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="1:9" s="51" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>317</v>
+    <row r="9" spans="1:9" s="50" customFormat="1" ht="32" x14ac:dyDescent="0.35">
+      <c r="A9" s="50" t="s">
+        <v>311</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>23</v>
@@ -11022,7 +11078,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>30</v>
@@ -11030,15 +11086,15 @@
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" spans="1:9" s="51" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>621</v>
+    <row r="10" spans="1:9" s="50" customFormat="1" ht="32" x14ac:dyDescent="0.35">
+      <c r="A10" s="50" t="s">
+        <v>614</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>23</v>
@@ -11047,36 +11103,36 @@
         <v>24</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
-        <v>290</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>319</v>
-      </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
+    <row r="11" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A11" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="30"/>
-      <c r="I11" s="52"/>
-    </row>
-    <row r="12" spans="1:9" s="51" customFormat="1" ht="90.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
-        <v>320</v>
+      <c r="I11" s="51"/>
+    </row>
+    <row r="12" spans="1:9" s="50" customFormat="1" ht="88" x14ac:dyDescent="0.35">
+      <c r="A12" s="50" t="s">
+        <v>314</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>23</v>
@@ -11085,7 +11141,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>30</v>
@@ -11093,24 +11149,24 @@
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:9" s="51" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
-        <v>322</v>
+    <row r="13" spans="1:9" s="50" customFormat="1" ht="32" x14ac:dyDescent="0.35">
+      <c r="A13" s="50" t="s">
+        <v>316</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>30</v>
@@ -11118,15 +11174,15 @@
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="1:9" s="51" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
-        <v>324</v>
+    <row r="14" spans="1:9" s="50" customFormat="1" ht="32" x14ac:dyDescent="0.35">
+      <c r="A14" s="50" t="s">
+        <v>318</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>23</v>
@@ -11135,7 +11191,7 @@
         <v>33</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>30</v>
@@ -11143,15 +11199,15 @@
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="1:9" s="51" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
-        <v>325</v>
+    <row r="15" spans="1:9" s="50" customFormat="1" ht="96" x14ac:dyDescent="0.35">
+      <c r="A15" s="50" t="s">
+        <v>319</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>23</v>
@@ -11160,53 +11216,53 @@
         <v>33</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" spans="1:9" s="59" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59">
+    <row r="16" spans="1:9" s="58" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="58">
         <v>6.3</v>
       </c>
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="30"/>
-      <c r="I16" s="53"/>
-    </row>
-    <row r="17" spans="1:9" s="57" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="B17" s="52" t="s">
+      <c r="I16" s="52"/>
+    </row>
+    <row r="17" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A17" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
       <c r="H17" s="30"/>
-      <c r="I17" s="52"/>
-    </row>
-    <row r="18" spans="1:9" s="51" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
-        <v>328</v>
+      <c r="I17" s="51"/>
+    </row>
+    <row r="18" spans="1:9" s="50" customFormat="1" ht="48" x14ac:dyDescent="0.35">
+      <c r="A18" s="50" t="s">
+        <v>322</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>23</v>
@@ -11215,7 +11271,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>30</v>
@@ -11223,30 +11279,30 @@
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
     </row>
-    <row r="19" spans="1:9" s="57" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
-        <v>345</v>
-      </c>
-      <c r="B19" s="52" t="s">
+    <row r="19" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A19" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
       <c r="H19" s="30"/>
-      <c r="I19" s="52"/>
-    </row>
-    <row r="20" spans="1:9" s="51" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
-        <v>332</v>
+      <c r="I19" s="51"/>
+    </row>
+    <row r="20" spans="1:9" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A20" s="50" t="s">
+        <v>326</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>23</v>
@@ -11255,7 +11311,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>30</v>
@@ -11263,15 +11319,15 @@
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
     </row>
-    <row r="21" spans="1:9" s="51" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
-        <v>336</v>
+    <row r="21" spans="1:9" s="50" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+      <c r="A21" s="50" t="s">
+        <v>330</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>23</v>
@@ -11280,7 +11336,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>30</v>
@@ -11288,263 +11344,263 @@
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
     </row>
-    <row r="22" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59">
+    <row r="22" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="58">
         <v>6.4</v>
       </c>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="108" t="s">
+        <v>349</v>
+      </c>
+      <c r="C22" s="109"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A23" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="B23" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="112"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="51"/>
+    </row>
+    <row r="24" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A24" s="67" t="s">
+        <v>353</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="51"/>
+    </row>
+    <row r="25" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="60"/>
+      <c r="B25" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C25" s="110"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A26" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="C22" s="105"/>
-      <c r="G22" s="30"/>
-    </row>
-    <row r="23" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
+      <c r="C26" s="31"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="51"/>
+    </row>
+    <row r="27" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="60"/>
+      <c r="B27" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C27" s="110"/>
+      <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A28" s="67" t="s">
         <v>356</v>
       </c>
-      <c r="B23" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="52"/>
-    </row>
-    <row r="24" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="68" t="s">
+      <c r="B28" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="52"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="106" t="s">
+      <c r="C28" s="31"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="51"/>
+    </row>
+    <row r="29" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="60"/>
+      <c r="B29" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C29" s="110"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A30" s="61" t="s">
+        <v>351</v>
+      </c>
+      <c r="B30" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="112"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="51"/>
+    </row>
+    <row r="31" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A31" s="67" t="s">
+        <v>356</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="51"/>
+    </row>
+    <row r="32" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="60"/>
+      <c r="B32" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C32" s="110"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A33" s="67" t="s">
         <v>358</v>
       </c>
-      <c r="C25" s="106"/>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
-        <v>363</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="52"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
-      <c r="B27" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C27" s="106"/>
-      <c r="G27" s="30"/>
-    </row>
-    <row r="28" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="68" t="s">
-        <v>362</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="52"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
-      <c r="B29" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C29" s="106"/>
-      <c r="G29" s="30"/>
-    </row>
-    <row r="30" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
-        <v>357</v>
-      </c>
-      <c r="B30" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="108"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="52"/>
-    </row>
-    <row r="31" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="68" t="s">
-        <v>362</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="52"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C32" s="106"/>
-      <c r="G32" s="30"/>
-    </row>
-    <row r="33" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="68" t="s">
-        <v>364</v>
-      </c>
       <c r="B33" s="30" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C33" s="31"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
       <c r="H33" s="30"/>
-      <c r="I33" s="52"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
-      <c r="B34" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C34" s="106"/>
+      <c r="I33" s="51"/>
+    </row>
+    <row r="34" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="60"/>
+      <c r="B34" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C34" s="110"/>
       <c r="G34" s="30"/>
     </row>
-    <row r="35" spans="1:9" s="57" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="68" t="s">
-        <v>362</v>
+    <row r="35" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
+      <c r="A35" s="67" t="s">
+        <v>356</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C35" s="31"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
       <c r="H35" s="30"/>
-      <c r="I35" s="52"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
-      <c r="B36" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="C36" s="106"/>
+      <c r="I35" s="51"/>
+    </row>
+    <row r="36" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="60"/>
+      <c r="B36" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C36" s="110"/>
       <c r="G36" s="30"/>
     </row>
-    <row r="37" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G37" s="30"/>
     </row>
-    <row r="38" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G38" s="30"/>
     </row>
-    <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G39" s="30"/>
     </row>
-    <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G40" s="30"/>
     </row>
-    <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G41" s="30"/>
     </row>
-    <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G42" s="30"/>
     </row>
-    <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G43" s="30"/>
     </row>
-    <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G44" s="30"/>
     </row>
-    <row r="45" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G45" s="30"/>
     </row>
-    <row r="46" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G46" s="30"/>
     </row>
-    <row r="47" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G47" s="30"/>
     </row>
-    <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G48" s="30"/>
     </row>
-    <row r="49" spans="7:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G49" s="30"/>
     </row>
-    <row r="50" spans="7:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G50" s="30"/>
     </row>
-    <row r="51" spans="7:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G51" s="30"/>
     </row>
-    <row r="52" spans="7:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G52" s="30"/>
     </row>
-    <row r="53" spans="7:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G53" s="30"/>
     </row>
-    <row r="54" spans="7:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G54" s="30"/>
     </row>
-    <row r="55" spans="7:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G55" s="30"/>
     </row>
-    <row r="56" spans="7:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G56" s="30"/>
     </row>
-    <row r="57" spans="7:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G57" s="30"/>
     </row>
-    <row r="58" spans="7:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G58" s="30"/>
     </row>
-    <row r="59" spans="7:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G59" s="30"/>
     </row>
-    <row r="60" spans="7:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G60" s="30"/>
     </row>
-    <row r="61" spans="7:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G61" s="30"/>
     </row>
-    <row r="62" spans="7:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G62" s="30"/>
     </row>
-    <row r="63" spans="7:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G63" s="30"/>
     </row>
   </sheetData>
@@ -11565,7 +11621,7 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H30:H31 H23:H24 H26 H33 H28 H35 H6:H21" xr:uid="{F98465A6-0CD9-4C98-B47D-05340C8947A9}">
       <formula1>_polarion_7</formula1>
     </dataValidation>
@@ -11576,7 +11632,7 @@
   <headerFooter>
     <oddHeader>&amp;L&amp;"Arial,Standard"&amp;12Technial Requirements for 
 &amp;A&amp;R&amp;G</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;10OCORA-TWS05-030&amp;C&amp;"Arial,Standard"&amp;10v1.00 / 31.01.2025&amp;R&amp;"Arial,Standard"&amp;10&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Standard"&amp;10OCORA-TWS05-030&amp;C&amp;"Arial,Standard"&amp;10v1.01 / 17.02.2025&amp;R&amp;"Arial,Standard"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="5" max="16383" man="1"/>

--- a/12_OCORA Release R6/OCORA-TWS05-030_CCS-OB Procurement - Technical Requirements.xlsx
+++ b/12_OCORA Release R6/OCORA-TWS05-030_CCS-OB Procurement - Technical Requirements.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B087FB11-58D2-4313-9495-8C17A50BCABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8599A03-0B2C-4A7C-8BC6-62F3DD819216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4500" yWindow="-23580" windowWidth="28440" windowHeight="22800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="668">
   <si>
     <t>OCORA</t>
   </si>
@@ -4353,7 +4353,10 @@
     <t>Editorial Update</t>
   </si>
   <si>
-    <t>Date: 17.02.2025</t>
+    <t xml:space="preserve"> Date: 17.02.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -5095,6 +5098,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5109,21 +5127,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6178,6 +6181,11 @@
         <v>14</v>
       </c>
     </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
     <row r="34" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="93" t="s">
         <v>2</v>
@@ -6270,14 +6278,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
     </row>
     <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
@@ -6297,22 +6305,22 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="110" t="s">
         <v>609</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
     </row>
     <row r="5" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="106"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
     </row>
     <row r="6" spans="1:9" s="54" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="52">
@@ -8133,14 +8141,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
     </row>
     <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
@@ -8160,31 +8168,31 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="110" t="s">
         <v>606</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
     </row>
     <row r="5" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="106"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
     </row>
     <row r="6" spans="1:8" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <v>6.2</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="106" t="s">
         <v>285</v>
       </c>
-      <c r="C6" s="109"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
@@ -9119,10 +9127,10 @@
     </row>
     <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="60"/>
-      <c r="B51" s="110" t="s">
+      <c r="B51" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C51" s="110"/>
+      <c r="C51" s="105"/>
       <c r="G51" s="30"/>
     </row>
     <row r="52" spans="1:8" s="66" customFormat="1" ht="8" x14ac:dyDescent="0.2">
@@ -9625,20 +9633,20 @@
       <c r="A75" s="58">
         <v>6.4</v>
       </c>
-      <c r="B75" s="108" t="s">
+      <c r="B75" s="106" t="s">
         <v>349</v>
       </c>
-      <c r="C75" s="109"/>
+      <c r="C75" s="107"/>
       <c r="G75" s="30"/>
     </row>
     <row r="76" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
       <c r="A76" s="61" t="s">
         <v>350</v>
       </c>
-      <c r="B76" s="111" t="s">
+      <c r="B76" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="112"/>
+      <c r="C76" s="104"/>
       <c r="D76" s="51"/>
       <c r="E76" s="51"/>
       <c r="F76" s="51"/>
@@ -9663,10 +9671,10 @@
     </row>
     <row r="78" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="60"/>
-      <c r="B78" s="110" t="s">
+      <c r="B78" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C78" s="110"/>
+      <c r="C78" s="105"/>
       <c r="G78" s="30"/>
     </row>
     <row r="79" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
@@ -9686,10 +9694,10 @@
     </row>
     <row r="80" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="60"/>
-      <c r="B80" s="110" t="s">
+      <c r="B80" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C80" s="110"/>
+      <c r="C80" s="105"/>
       <c r="G80" s="30"/>
     </row>
     <row r="81" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
@@ -9709,20 +9717,20 @@
     </row>
     <row r="82" spans="1:9" ht="10" x14ac:dyDescent="0.35">
       <c r="A82" s="60"/>
-      <c r="B82" s="110" t="s">
+      <c r="B82" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C82" s="110"/>
+      <c r="C82" s="105"/>
       <c r="G82" s="30"/>
     </row>
     <row r="83" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
       <c r="A83" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="B83" s="111" t="s">
+      <c r="B83" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="C83" s="112"/>
+      <c r="C83" s="104"/>
       <c r="D83" s="51"/>
       <c r="E83" s="51"/>
       <c r="F83" s="51"/>
@@ -9747,10 +9755,10 @@
     </row>
     <row r="85" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="60"/>
-      <c r="B85" s="110" t="s">
+      <c r="B85" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C85" s="110"/>
+      <c r="C85" s="105"/>
       <c r="G85" s="30"/>
     </row>
     <row r="86" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
@@ -9770,10 +9778,10 @@
     </row>
     <row r="87" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="60"/>
-      <c r="B87" s="110" t="s">
+      <c r="B87" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C87" s="110"/>
+      <c r="C87" s="105"/>
       <c r="G87" s="30"/>
     </row>
     <row r="88" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
@@ -9793,31 +9801,41 @@
     </row>
     <row r="89" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="60"/>
-      <c r="B89" s="110" t="s">
+      <c r="B89" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C89" s="110"/>
+      <c r="C89" s="105"/>
       <c r="G89" s="30"/>
     </row>
     <row r="90" spans="1:9" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="61" t="s">
         <v>563</v>
       </c>
-      <c r="B90" s="111" t="s">
+      <c r="B90" s="103" t="s">
         <v>562</v>
       </c>
-      <c r="C90" s="112"/>
+      <c r="C90" s="104"/>
     </row>
     <row r="91" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="60"/>
-      <c r="B91" s="110" t="s">
+      <c r="B91" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C91" s="110"/>
+      <c r="C91" s="105"/>
       <c r="G91" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B80:C80"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B82:C82"/>
@@ -9825,16 +9843,6 @@
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H83:H84 H76:H77 H79 H86 H81 H88" xr:uid="{2F80DD24-1168-4FD1-AF1D-EC5CB2C7016C}">
@@ -9908,23 +9916,23 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
     </row>
     <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="105" t="s">
         <v>594</v>
       </c>
-      <c r="C3" s="110"/>
+      <c r="C3" s="105"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
@@ -9936,31 +9944,31 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="110" t="s">
         <v>605</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
     </row>
     <row r="5" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="106"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
     </row>
     <row r="6" spans="1:9" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="58">
         <v>6.2</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="106" t="s">
         <v>285</v>
       </c>
-      <c r="C6" s="109"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
       <c r="F6" s="52"/>
@@ -9972,10 +9980,10 @@
       <c r="A7" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="C7" s="112"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
       <c r="F7" s="51"/>
@@ -10012,10 +10020,10 @@
       <c r="A9" s="58">
         <v>6.3</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="106" t="s">
         <v>343</v>
       </c>
-      <c r="C9" s="109"/>
+      <c r="C9" s="107"/>
       <c r="D9" s="52"/>
       <c r="E9" s="52"/>
       <c r="F9" s="52"/>
@@ -10027,10 +10035,10 @@
       <c r="A10" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="112"/>
+      <c r="C10" s="104"/>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
       <c r="F10" s="51"/>
@@ -10067,10 +10075,10 @@
       <c r="A12" s="61" t="s">
         <v>339</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="112"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="51"/>
       <c r="E12" s="51"/>
       <c r="F12" s="51"/>
@@ -10080,30 +10088,30 @@
     </row>
     <row r="13" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="60"/>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C13" s="110"/>
+      <c r="C13" s="105"/>
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58">
         <v>6.4</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="106" t="s">
         <v>349</v>
       </c>
-      <c r="C14" s="109"/>
+      <c r="C14" s="107"/>
       <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
       <c r="A15" s="61" t="s">
         <v>350</v>
       </c>
-      <c r="B15" s="111" t="s">
+      <c r="B15" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="112"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="51"/>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -10128,10 +10136,10 @@
     </row>
     <row r="17" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="60"/>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C17" s="110"/>
+      <c r="C17" s="105"/>
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
@@ -10151,10 +10159,10 @@
     </row>
     <row r="19" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="60"/>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C19" s="110"/>
+      <c r="C19" s="105"/>
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
@@ -10174,20 +10182,20 @@
     </row>
     <row r="21" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="60"/>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C21" s="110"/>
+      <c r="C21" s="105"/>
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
       <c r="A22" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="112"/>
+      <c r="C22" s="104"/>
       <c r="D22" s="51"/>
       <c r="E22" s="51"/>
       <c r="F22" s="51"/>
@@ -10212,10 +10220,10 @@
     </row>
     <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="60"/>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C24" s="110"/>
+      <c r="C24" s="105"/>
       <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
@@ -10235,10 +10243,10 @@
     </row>
     <row r="26" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="60"/>
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C26" s="110"/>
+      <c r="C26" s="105"/>
       <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
@@ -10258,14 +10266,26 @@
     </row>
     <row r="28" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="60"/>
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C28" s="110"/>
+      <c r="C28" s="105"/>
       <c r="G28" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B2:G2"/>
@@ -10274,18 +10294,6 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H6:H7 H9:H12 H22:H23 H15:H16 H18 H25 H20 H27" xr:uid="{D7249125-B724-4079-AF9A-21E078707F2A}">
@@ -10357,14 +10365,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
     </row>
     <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
@@ -10384,31 +10392,31 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="110" t="s">
         <v>607</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
     </row>
     <row r="5" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="106"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
     </row>
     <row r="6" spans="1:9" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="58">
         <v>6.2</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="106" t="s">
         <v>285</v>
       </c>
-      <c r="C6" s="104"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
       <c r="F6" s="52"/>
@@ -10600,10 +10608,10 @@
       <c r="A15" s="58">
         <v>6.3</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="106" t="s">
         <v>295</v>
       </c>
-      <c r="C15" s="104"/>
+      <c r="C15" s="109"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -10615,10 +10623,10 @@
       <c r="A16" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="104"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -10678,10 +10686,10 @@
       <c r="A19" s="61" t="s">
         <v>339</v>
       </c>
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="112"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="51"/>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
@@ -10691,30 +10699,30 @@
     </row>
     <row r="20" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="60"/>
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C20" s="110"/>
+      <c r="C20" s="105"/>
       <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="58">
         <v>6.4</v>
       </c>
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="106" t="s">
         <v>349</v>
       </c>
-      <c r="C21" s="109"/>
+      <c r="C21" s="107"/>
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
       <c r="A22" s="61" t="s">
         <v>350</v>
       </c>
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="112"/>
+      <c r="C22" s="104"/>
       <c r="D22" s="51"/>
       <c r="E22" s="51"/>
       <c r="F22" s="51"/>
@@ -10739,10 +10747,10 @@
     </row>
     <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="60"/>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C24" s="110"/>
+      <c r="C24" s="105"/>
       <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
@@ -10762,10 +10770,10 @@
     </row>
     <row r="26" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="60"/>
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C26" s="110"/>
+      <c r="C26" s="105"/>
       <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
@@ -10785,20 +10793,20 @@
     </row>
     <row r="28" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="60"/>
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C28" s="110"/>
+      <c r="C28" s="105"/>
       <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
       <c r="A29" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="112"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>
       <c r="F29" s="51"/>
@@ -10823,10 +10831,10 @@
     </row>
     <row r="31" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="60"/>
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C31" s="110"/>
+      <c r="C31" s="105"/>
       <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
@@ -10846,10 +10854,10 @@
     </row>
     <row r="33" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="60"/>
-      <c r="B33" s="110" t="s">
+      <c r="B33" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C33" s="110"/>
+      <c r="C33" s="105"/>
       <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
@@ -10869,19 +10877,19 @@
     </row>
     <row r="35" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="60"/>
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C35" s="110"/>
+      <c r="C35" s="105"/>
       <c r="G35" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B24:C24"/>
@@ -10890,11 +10898,11 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.86614173228346458" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
@@ -10962,14 +10970,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
     </row>
     <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
@@ -10989,31 +10997,31 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="110" t="s">
         <v>608</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
     </row>
     <row r="5" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="106"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
     </row>
     <row r="6" spans="1:9" s="58" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="58">
         <v>6.2</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="106" t="s">
         <v>285</v>
       </c>
-      <c r="C6" s="108"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
       <c r="F6" s="52"/>
@@ -11228,10 +11236,10 @@
       <c r="A16" s="58">
         <v>6.3</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="108"/>
+      <c r="C16" s="106"/>
       <c r="D16" s="52"/>
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
@@ -11348,20 +11356,20 @@
       <c r="A22" s="58">
         <v>6.4</v>
       </c>
-      <c r="B22" s="108" t="s">
+      <c r="B22" s="106" t="s">
         <v>349</v>
       </c>
-      <c r="C22" s="109"/>
+      <c r="C22" s="107"/>
       <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
       <c r="A23" s="61" t="s">
         <v>350</v>
       </c>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="112"/>
+      <c r="C23" s="104"/>
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
       <c r="F23" s="51"/>
@@ -11386,10 +11394,10 @@
     </row>
     <row r="25" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="60"/>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C25" s="110"/>
+      <c r="C25" s="105"/>
       <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
@@ -11409,10 +11417,10 @@
     </row>
     <row r="27" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="60"/>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C27" s="110"/>
+      <c r="C27" s="105"/>
       <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
@@ -11432,20 +11440,20 @@
     </row>
     <row r="29" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="60"/>
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C29" s="110"/>
+      <c r="C29" s="105"/>
       <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
       <c r="A30" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="B30" s="111" t="s">
+      <c r="B30" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="112"/>
+      <c r="C30" s="104"/>
       <c r="D30" s="51"/>
       <c r="E30" s="51"/>
       <c r="F30" s="51"/>
@@ -11470,10 +11478,10 @@
     </row>
     <row r="32" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="60"/>
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C32" s="110"/>
+      <c r="C32" s="105"/>
       <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
@@ -11493,10 +11501,10 @@
     </row>
     <row r="34" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="60"/>
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C34" s="110"/>
+      <c r="C34" s="105"/>
       <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:9" s="56" customFormat="1" ht="8" x14ac:dyDescent="0.35">
@@ -11516,10 +11524,10 @@
     </row>
     <row r="36" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="60"/>
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C36" s="110"/>
+      <c r="C36" s="105"/>
       <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -11605,21 +11613,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H30:H31 H23:H24 H26 H33 H28 H35 H6:H21" xr:uid="{F98465A6-0CD9-4C98-B47D-05340C8947A9}">
@@ -11644,26 +11652,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1fce9474-19d4-4240-9ba5-e002108504aa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="affa50e8-14a3-442c-b4b4-e61b9fb54af6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010055E5F3423508794F8AC5D0171C8F361A" ma:contentTypeVersion="15" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="34feb684b7ef87d836b290630069356d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1fce9474-19d4-4240-9ba5-e002108504aa" xmlns:ns3="affa50e8-14a3-442c-b4b4-e61b9fb54af6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dc3dc47b070c06128f34c0d7b4561039" ns2:_="" ns3:_="">
     <xsd:import namespace="1fce9474-19d4-4240-9ba5-e002108504aa"/>
@@ -11898,32 +11886,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B79EF020-626C-4B01-8C5A-B3E91A90DAAD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="affa50e8-14a3-442c-b4b4-e61b9fb54af6"/>
-    <ds:schemaRef ds:uri="1fce9474-19d4-4240-9ba5-e002108504aa"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1F30DC8-0F46-4579-BE8E-F69A2734544F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1fce9474-19d4-4240-9ba5-e002108504aa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="affa50e8-14a3-442c-b4b4-e61b9fb54af6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{147F5788-345E-47BD-B247-7D0BB73AE8A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11940,4 +11923,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1F30DC8-0F46-4579-BE8E-F69A2734544F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B79EF020-626C-4B01-8C5A-B3E91A90DAAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="affa50e8-14a3-442c-b4b4-e61b9fb54af6"/>
+    <ds:schemaRef ds:uri="1fce9474-19d4-4240-9ba5-e002108504aa"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>